--- a/back/data.xlsx
+++ b/back/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismai\PycharmProjects\fast-apiv2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismai\Desktop\back fast api\back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A131C402-5B89-4149-A9C8-249ABF7B9594}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785F1C3E-08BC-485C-A7FB-0CB0EB7FF460}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="202">
   <si>
     <t>Date Emission</t>
   </si>
@@ -611,6 +611,21 @@
   </si>
   <si>
     <t>Fractionn</t>
+  </si>
+  <si>
+    <t>SH2036080</t>
+  </si>
+  <si>
+    <t>JB345061</t>
+  </si>
+  <si>
+    <t>JB345062</t>
+  </si>
+  <si>
+    <t>JB345063</t>
+  </si>
+  <si>
+    <t>sh203680</t>
   </si>
 </sst>
 </file>
@@ -1478,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,7 +2827,7 @@
         <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F32" s="1">
         <v>45401</v>
@@ -2840,6 +2855,402 @@
       </c>
       <c r="N32">
         <v>769.91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45400.75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G33" s="1">
+        <v>45491</v>
+      </c>
+      <c r="H33" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
+        <v>163</v>
+      </c>
+      <c r="L33" t="s">
+        <v>164</v>
+      </c>
+      <c r="M33" t="s">
+        <v>165</v>
+      </c>
+      <c r="N33">
+        <v>769.91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45400.75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G34" s="1">
+        <v>45491</v>
+      </c>
+      <c r="H34" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" t="s">
+        <v>163</v>
+      </c>
+      <c r="L34" t="s">
+        <v>164</v>
+      </c>
+      <c r="M34" t="s">
+        <v>165</v>
+      </c>
+      <c r="N34">
+        <v>769.91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45400.75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G35" s="1">
+        <v>45491</v>
+      </c>
+      <c r="H35" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" t="s">
+        <v>163</v>
+      </c>
+      <c r="L35" t="s">
+        <v>164</v>
+      </c>
+      <c r="M35" t="s">
+        <v>165</v>
+      </c>
+      <c r="N35">
+        <v>769.91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45400.75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G36" s="1">
+        <v>45491</v>
+      </c>
+      <c r="H36" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" t="s">
+        <v>163</v>
+      </c>
+      <c r="L36" t="s">
+        <v>164</v>
+      </c>
+      <c r="M36" t="s">
+        <v>165</v>
+      </c>
+      <c r="N36">
+        <v>769.91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45400.75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G37" s="1">
+        <v>45491</v>
+      </c>
+      <c r="H37" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>163</v>
+      </c>
+      <c r="L37" t="s">
+        <v>164</v>
+      </c>
+      <c r="M37" t="s">
+        <v>165</v>
+      </c>
+      <c r="N37">
+        <v>769.91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45400.75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G38" s="1">
+        <v>45491</v>
+      </c>
+      <c r="H38" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>163</v>
+      </c>
+      <c r="L38" t="s">
+        <v>164</v>
+      </c>
+      <c r="M38" t="s">
+        <v>165</v>
+      </c>
+      <c r="N38">
+        <v>79.91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45400.75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G39" s="1">
+        <v>45491</v>
+      </c>
+      <c r="H39" t="s">
+        <v>115</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
+        <v>163</v>
+      </c>
+      <c r="L39" t="s">
+        <v>164</v>
+      </c>
+      <c r="M39" t="s">
+        <v>165</v>
+      </c>
+      <c r="N39">
+        <v>69.91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45400.75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G40" s="1">
+        <v>45491</v>
+      </c>
+      <c r="H40" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" t="s">
+        <v>163</v>
+      </c>
+      <c r="L40" t="s">
+        <v>164</v>
+      </c>
+      <c r="M40" t="s">
+        <v>165</v>
+      </c>
+      <c r="N40">
+        <v>769.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45400.75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>201</v>
+      </c>
+      <c r="F41" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G41" s="1">
+        <v>45491</v>
+      </c>
+      <c r="H41" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" t="s">
+        <v>163</v>
+      </c>
+      <c r="L41" t="s">
+        <v>164</v>
+      </c>
+      <c r="M41" t="s">
+        <v>165</v>
+      </c>
+      <c r="N41">
+        <v>769.1</v>
       </c>
     </row>
   </sheetData>

--- a/back/data.xlsx
+++ b/back/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismai\Desktop\back\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismai\Desktop\back fast api\python_fastapi_react\back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2FE46D-01AF-4D36-B27B-4670E53CFD06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5040ADD8-F0EA-459C-9A14-87C35EA721C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="227">
   <si>
     <t>Date Emission</t>
   </si>
@@ -692,6 +692,15 @@
   </si>
   <si>
     <t>Fractionn</t>
+  </si>
+  <si>
+    <t>JJ23622</t>
+  </si>
+  <si>
+    <t>JJ23621</t>
+  </si>
+  <si>
+    <t>JJ23625</t>
   </si>
 </sst>
 </file>
@@ -1517,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,6 +2885,69 @@
         <v>409.46</v>
       </c>
     </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45441</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H56" s="3">
+        <v>409.46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45441</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H57" s="3">
+        <v>409.46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45441</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H58" s="3">
+        <v>409.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/back/data.xlsx
+++ b/back/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismai\Desktop\back fast api\python_fastapi_react\back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5040ADD8-F0EA-459C-9A14-87C35EA721C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC33D6F-B80B-4E4C-846D-D0333843960B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="229">
   <si>
     <t>Date Emission</t>
   </si>
@@ -701,6 +701,12 @@
   </si>
   <si>
     <t>JJ23625</t>
+  </si>
+  <si>
+    <t>JJ235</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1526,15 +1532,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -2886,6 +2892,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>45439</v>
+      </c>
       <c r="B56" s="3" t="s">
         <v>165</v>
       </c>
@@ -2907,6 +2916,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45439</v>
+      </c>
       <c r="B57" s="3" t="s">
         <v>165</v>
       </c>
@@ -2928,6 +2940,9 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45439</v>
+      </c>
       <c r="B58" s="3" t="s">
         <v>165</v>
       </c>
@@ -2945,6 +2960,30 @@
         <v>167</v>
       </c>
       <c r="H58" s="3">
+        <v>409.46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45439</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45441</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H59" s="3">
         <v>409.46</v>
       </c>
     </row>

--- a/back/data.xlsx
+++ b/back/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismai\Desktop\back fast api\python_fastapi_react\back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC33D6F-B80B-4E4C-846D-D0333843960B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6FE8D7-3EFB-452F-A7D6-C03E3DCF151C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="231">
   <si>
     <t>Date Emission</t>
   </si>
@@ -707,6 +707,12 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>ismail test</t>
+  </si>
+  <si>
+    <t>sh203680</t>
   </si>
 </sst>
 </file>
@@ -1532,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2987,6 +2993,30 @@
         <v>409.46</v>
       </c>
     </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45439</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45441</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H60" s="3">
+        <v>409.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
